--- a/classfiers/bottleneck/elm/nearmiss/bottleneck_elm_tanh_nearmiss_results.xlsx
+++ b/classfiers/bottleneck/elm/nearmiss/bottleneck_elm_tanh_nearmiss_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5862068965517241</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7391304347826086</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6941176470588235</v>
+        <v>0.8214285714285714</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6451612903225806</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7843137254901961</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6647058823529411</v>
+        <v>0.6534090909090909</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5806451612903226</v>
+        <v>0.6</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7346938775510204</v>
+        <v>0.7058823529411764</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5877192982456141</v>
+        <v>0.6369047619047619</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5483870967741935</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7083333333333333</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7441176470588236</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6923076923076923</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7826086956521738</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6105416274493025</v>
+        <v>0.6747619047619048</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9800000000000001</v>
+        <v>0.9180952380952381</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7498160133618665</v>
+        <v>0.7675417568446287</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7081320949432406</v>
+        <v>0.7306818181818182</v>
       </c>
     </row>
   </sheetData>
